--- a/data/output/FV2410_FV2404/UTILMD/55095.xlsx
+++ b/data/output/FV2410_FV2404/UTILMD/55095.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14790" uniqueCount="923">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14811" uniqueCount="923">
+  <si>
+    <t>Segmentname_FV2404</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2404</t>
+  </si>
+  <si>
+    <t>Segment_FV2404</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2404</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2404</t>
+  </si>
+  <si>
+    <t>Code_FV2404</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2404</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2404</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2410</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2410</t>
+  </si>
+  <si>
+    <t>Segment_FV2410</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2410</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2410</t>
+  </si>
+  <si>
+    <t>Code_FV2410</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2410</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2410</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -2928,6 +2928,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U662" totalsRowShown="0">
+  <autoFilter ref="A1:U662"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2404"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2404"/>
+    <tableColumn id="3" name="Segment_FV2404"/>
+    <tableColumn id="4" name="Datenelement_FV2404"/>
+    <tableColumn id="5" name="Segment ID_FV2404"/>
+    <tableColumn id="6" name="Code_FV2404"/>
+    <tableColumn id="7" name="Qualifier_FV2404"/>
+    <tableColumn id="8" name="Beschreibung_FV2404"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2404"/>
+    <tableColumn id="10" name="Bedingung_FV2404"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2410"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2410"/>
+    <tableColumn id="14" name="Segment_FV2410"/>
+    <tableColumn id="15" name="Datenelement_FV2410"/>
+    <tableColumn id="16" name="Segment ID_FV2410"/>
+    <tableColumn id="17" name="Code_FV2410"/>
+    <tableColumn id="18" name="Qualifier_FV2410"/>
+    <tableColumn id="19" name="Beschreibung_FV2410"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2410"/>
+    <tableColumn id="21" name="Bedingung_FV2410"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3217,7 +3247,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U662"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -35062,5 +35095,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2410_FV2404/UTILMD/55095.xlsx
+++ b/data/output/FV2410_FV2404/UTILMD/55095.xlsx
@@ -5329,7 +5329,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -5691,7 +5691,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -5837,7 +5837,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -6039,7 +6039,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N16" s="2" t="s">
@@ -6343,7 +6343,7 @@
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="4"/>
-      <c r="M22" s="2" t="s">
+      <c r="M22" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N22" s="2" t="s">
@@ -6535,7 +6535,7 @@
       </c>
       <c r="K26" s="2"/>
       <c r="L26" s="4"/>
-      <c r="M26" s="2" t="s">
+      <c r="M26" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N26" s="2" t="s">
@@ -6909,7 +6909,7 @@
       </c>
       <c r="K33" s="2"/>
       <c r="L33" s="4"/>
-      <c r="M33" s="2" t="s">
+      <c r="M33" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N33" s="2" t="s">
@@ -7213,7 +7213,7 @@
       </c>
       <c r="K39" s="2"/>
       <c r="L39" s="4"/>
-      <c r="M39" s="2" t="s">
+      <c r="M39" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N39" s="2" t="s">
@@ -7407,7 +7407,7 @@
         <v>844</v>
       </c>
       <c r="L43" s="4"/>
-      <c r="M43" s="2" t="s">
+      <c r="M43" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N43" s="2" t="s">
@@ -7569,7 +7569,7 @@
         <v>845</v>
       </c>
       <c r="L46" s="4"/>
-      <c r="M46" s="2" t="s">
+      <c r="M46" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N46" s="2" t="s">
@@ -7763,7 +7763,7 @@
       </c>
       <c r="K50" s="2"/>
       <c r="L50" s="4"/>
-      <c r="M50" s="2" t="s">
+      <c r="M50" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N50" s="2" t="s">
@@ -7957,7 +7957,7 @@
         <v>848</v>
       </c>
       <c r="L54" s="4"/>
-      <c r="M54" s="2" t="s">
+      <c r="M54" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N54" s="2" t="s">
@@ -8153,7 +8153,7 @@
         <v>850</v>
       </c>
       <c r="L58" s="4"/>
-      <c r="M58" s="2" t="s">
+      <c r="M58" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N58" s="2" t="s">
@@ -8349,7 +8349,7 @@
         <v>852</v>
       </c>
       <c r="L62" s="4"/>
-      <c r="M62" s="2" t="s">
+      <c r="M62" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N62" s="2" t="s">
@@ -8545,7 +8545,7 @@
         <v>853</v>
       </c>
       <c r="L66" s="4"/>
-      <c r="M66" s="2" t="s">
+      <c r="M66" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N66" s="2" t="s">
@@ -8739,7 +8739,7 @@
       </c>
       <c r="K70" s="2"/>
       <c r="L70" s="4"/>
-      <c r="M70" s="2" t="s">
+      <c r="M70" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N70" s="2" t="s">
@@ -8939,7 +8939,7 @@
       </c>
       <c r="K74" s="2"/>
       <c r="L74" s="4"/>
-      <c r="M74" s="2" t="s">
+      <c r="M74" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N74" s="2" t="s">
@@ -9137,7 +9137,7 @@
         <v>855</v>
       </c>
       <c r="L78" s="4"/>
-      <c r="M78" s="2" t="s">
+      <c r="M78" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N78" s="2" t="s">
@@ -9347,7 +9347,7 @@
       </c>
       <c r="K82" s="2"/>
       <c r="L82" s="4"/>
-      <c r="M82" s="2" t="s">
+      <c r="M82" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N82" s="2" t="s">
@@ -9615,7 +9615,7 @@
         <v>857</v>
       </c>
       <c r="L87" s="4"/>
-      <c r="M87" s="2" t="s">
+      <c r="M87" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N87" s="2" t="s">
@@ -10031,7 +10031,7 @@
         <v>860</v>
       </c>
       <c r="L95" s="4"/>
-      <c r="M95" s="2" t="s">
+      <c r="M95" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N95" s="2" t="s">
@@ -10175,7 +10175,7 @@
       </c>
       <c r="K98" s="2"/>
       <c r="L98" s="4"/>
-      <c r="M98" s="2" t="s">
+      <c r="M98" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N98" s="2" t="s">
@@ -10501,7 +10501,7 @@
         <v>862</v>
       </c>
       <c r="L104" s="4"/>
-      <c r="M104" s="2" t="s">
+      <c r="M104" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N104" s="2" t="s">
@@ -10695,54 +10695,54 @@
       </c>
     </row>
     <row r="108" spans="1:22">
-      <c r="A108" s="5" t="s">
+      <c r="A108" s="2" t="s">
         <v>1020</v>
       </c>
-      <c r="B108" s="5" t="s">
+      <c r="B108" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C108" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="D108" s="5" t="s">
+      <c r="C108" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D108" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="E108" s="5"/>
-      <c r="F108" s="5" t="s">
+      <c r="E108" s="2"/>
+      <c r="F108" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="G108" s="5"/>
-      <c r="H108" s="5"/>
-      <c r="I108" s="5"/>
+      <c r="G108" s="2"/>
+      <c r="H108" s="2"/>
+      <c r="I108" s="2"/>
       <c r="J108" s="6" t="s">
         <v>754</v>
       </c>
-      <c r="K108" s="5" t="s">
+      <c r="K108" s="2" t="s">
         <v>863</v>
       </c>
       <c r="L108" s="7" t="s">
         <v>923</v>
       </c>
-      <c r="M108" s="5" t="s">
+      <c r="M108" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="N108" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="O108" s="5" t="s">
+      <c r="N108" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="O108" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="P108" s="5"/>
-      <c r="Q108" s="5" t="s">
+      <c r="P108" s="2"/>
+      <c r="Q108" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="R108" s="5"/>
-      <c r="S108" s="5"/>
-      <c r="T108" s="5"/>
+      <c r="R108" s="2"/>
+      <c r="S108" s="2"/>
+      <c r="T108" s="2"/>
       <c r="U108" s="6" t="s">
         <v>924</v>
       </c>
-      <c r="V108" s="5" t="s">
+      <c r="V108" s="2" t="s">
         <v>863</v>
       </c>
     </row>
@@ -10943,7 +10943,7 @@
         <v>865</v>
       </c>
       <c r="L112" s="4"/>
-      <c r="M112" s="2" t="s">
+      <c r="M112" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N112" s="2" t="s">
@@ -11105,7 +11105,7 @@
         <v>866</v>
       </c>
       <c r="L115" s="4"/>
-      <c r="M115" s="2" t="s">
+      <c r="M115" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N115" s="2" t="s">
@@ -11245,7 +11245,7 @@
       </c>
       <c r="K118" s="2"/>
       <c r="L118" s="4"/>
-      <c r="M118" s="2" t="s">
+      <c r="M118" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N118" s="2" t="s">
@@ -11403,7 +11403,7 @@
       </c>
       <c r="K121" s="2"/>
       <c r="L121" s="4"/>
-      <c r="M121" s="2" t="s">
+      <c r="M121" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N121" s="2" t="s">
@@ -11649,7 +11649,7 @@
       </c>
       <c r="K126" s="2"/>
       <c r="L126" s="4"/>
-      <c r="M126" s="2" t="s">
+      <c r="M126" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N126" s="2" t="s">
@@ -11795,7 +11795,7 @@
       </c>
       <c r="K129" s="2"/>
       <c r="L129" s="4"/>
-      <c r="M129" s="2" t="s">
+      <c r="M129" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N129" s="2" t="s">
@@ -12117,7 +12117,7 @@
         <v>867</v>
       </c>
       <c r="L135" s="4"/>
-      <c r="M135" s="2" t="s">
+      <c r="M135" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N135" s="2" t="s">
@@ -12261,7 +12261,7 @@
       </c>
       <c r="K138" s="2"/>
       <c r="L138" s="4"/>
-      <c r="M138" s="2" t="s">
+      <c r="M138" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N138" s="2" t="s">
@@ -12423,7 +12423,7 @@
       </c>
       <c r="K141" s="2"/>
       <c r="L141" s="4"/>
-      <c r="M141" s="2" t="s">
+      <c r="M141" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N141" s="2" t="s">
@@ -12633,7 +12633,7 @@
         <v>869</v>
       </c>
       <c r="L145" s="4"/>
-      <c r="M145" s="2" t="s">
+      <c r="M145" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N145" s="2" t="s">
@@ -12827,7 +12827,7 @@
       </c>
       <c r="K149" s="2"/>
       <c r="L149" s="4"/>
-      <c r="M149" s="2" t="s">
+      <c r="M149" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N149" s="2" t="s">
@@ -13181,7 +13181,7 @@
       </c>
       <c r="K156" s="2"/>
       <c r="L156" s="4"/>
-      <c r="M156" s="2" t="s">
+      <c r="M156" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N156" s="2" t="s">
@@ -13325,7 +13325,7 @@
         <v>844</v>
       </c>
       <c r="L159" s="4"/>
-      <c r="M159" s="2" t="s">
+      <c r="M159" s="3" t="s">
         <v>56</v>
       </c>
       <c r="N159" s="2" t="s">
@@ -13465,7 +13465,7 @@
       </c>
       <c r="K162" s="2"/>
       <c r="L162" s="4"/>
-      <c r="M162" s="2" t="s">
+      <c r="M162" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N162" s="2" t="s">
@@ -13625,7 +13625,7 @@
         <v>870</v>
       </c>
       <c r="L165" s="4"/>
-      <c r="M165" s="2" t="s">
+      <c r="M165" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N165" s="2" t="s">
@@ -14111,7 +14111,7 @@
         <v>874</v>
       </c>
       <c r="L174" s="4"/>
-      <c r="M174" s="2" t="s">
+      <c r="M174" s="3" t="s">
         <v>59</v>
       </c>
       <c r="N174" s="2" t="s">
@@ -14371,7 +14371,7 @@
       </c>
       <c r="K179" s="2"/>
       <c r="L179" s="4"/>
-      <c r="M179" s="2" t="s">
+      <c r="M179" s="3" t="s">
         <v>60</v>
       </c>
       <c r="N179" s="2" t="s">
@@ -14563,7 +14563,7 @@
       </c>
       <c r="K183" s="2"/>
       <c r="L183" s="4"/>
-      <c r="M183" s="2" t="s">
+      <c r="M183" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N183" s="2" t="s">
@@ -14709,7 +14709,7 @@
       </c>
       <c r="K186" s="2"/>
       <c r="L186" s="4"/>
-      <c r="M186" s="2" t="s">
+      <c r="M186" s="3" t="s">
         <v>61</v>
       </c>
       <c r="N186" s="2" t="s">
@@ -14867,7 +14867,7 @@
       </c>
       <c r="K189" s="2"/>
       <c r="L189" s="4"/>
-      <c r="M189" s="2" t="s">
+      <c r="M189" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N189" s="2" t="s">
@@ -15299,7 +15299,7 @@
       </c>
       <c r="K197" s="2"/>
       <c r="L197" s="4"/>
-      <c r="M197" s="2" t="s">
+      <c r="M197" s="3" t="s">
         <v>62</v>
       </c>
       <c r="N197" s="2" t="s">
@@ -15487,7 +15487,7 @@
       </c>
       <c r="K201" s="2"/>
       <c r="L201" s="4"/>
-      <c r="M201" s="2" t="s">
+      <c r="M201" s="3" t="s">
         <v>63</v>
       </c>
       <c r="N201" s="2" t="s">
@@ -15677,7 +15677,7 @@
         <v>844</v>
       </c>
       <c r="L205" s="4"/>
-      <c r="M205" s="2" t="s">
+      <c r="M205" s="3" t="s">
         <v>64</v>
       </c>
       <c r="N205" s="2" t="s">
@@ -15971,7 +15971,7 @@
       </c>
       <c r="K211" s="2"/>
       <c r="L211" s="4"/>
-      <c r="M211" s="2" t="s">
+      <c r="M211" s="3" t="s">
         <v>65</v>
       </c>
       <c r="N211" s="2" t="s">
@@ -16385,7 +16385,7 @@
         <v>876</v>
       </c>
       <c r="L219" s="4"/>
-      <c r="M219" s="2" t="s">
+      <c r="M219" s="3" t="s">
         <v>66</v>
       </c>
       <c r="N219" s="2" t="s">
@@ -16599,7 +16599,7 @@
       </c>
       <c r="K223" s="2"/>
       <c r="L223" s="4"/>
-      <c r="M223" s="2" t="s">
+      <c r="M223" s="3" t="s">
         <v>67</v>
       </c>
       <c r="N223" s="2" t="s">
@@ -16899,7 +16899,7 @@
       </c>
       <c r="K229" s="2"/>
       <c r="L229" s="4"/>
-      <c r="M229" s="2" t="s">
+      <c r="M229" s="3" t="s">
         <v>68</v>
       </c>
       <c r="N229" s="2" t="s">
@@ -17145,7 +17145,7 @@
       </c>
       <c r="K234" s="2"/>
       <c r="L234" s="4"/>
-      <c r="M234" s="2" t="s">
+      <c r="M234" s="3" t="s">
         <v>69</v>
       </c>
       <c r="N234" s="2" t="s">
@@ -17347,7 +17347,7 @@
         <v>878</v>
       </c>
       <c r="L238" s="4"/>
-      <c r="M238" s="2" t="s">
+      <c r="M238" s="3" t="s">
         <v>70</v>
       </c>
       <c r="N238" s="2" t="s">
@@ -17557,7 +17557,7 @@
       </c>
       <c r="K242" s="2"/>
       <c r="L242" s="4"/>
-      <c r="M242" s="2" t="s">
+      <c r="M242" s="3" t="s">
         <v>71</v>
       </c>
       <c r="N242" s="2" t="s">
@@ -17703,7 +17703,7 @@
       </c>
       <c r="K245" s="2"/>
       <c r="L245" s="4"/>
-      <c r="M245" s="2" t="s">
+      <c r="M245" s="3" t="s">
         <v>72</v>
       </c>
       <c r="N245" s="2" t="s">
@@ -18021,7 +18021,7 @@
         <v>879</v>
       </c>
       <c r="L251" s="4"/>
-      <c r="M251" s="2" t="s">
+      <c r="M251" s="3" t="s">
         <v>73</v>
       </c>
       <c r="N251" s="2" t="s">
@@ -18165,7 +18165,7 @@
       </c>
       <c r="K254" s="2"/>
       <c r="L254" s="4"/>
-      <c r="M254" s="2" t="s">
+      <c r="M254" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N254" s="2" t="s">
@@ -18327,7 +18327,7 @@
       </c>
       <c r="K257" s="2"/>
       <c r="L257" s="4"/>
-      <c r="M257" s="2" t="s">
+      <c r="M257" s="3" t="s">
         <v>74</v>
       </c>
       <c r="N257" s="2" t="s">
@@ -18537,7 +18537,7 @@
         <v>881</v>
       </c>
       <c r="L261" s="4"/>
-      <c r="M261" s="2" t="s">
+      <c r="M261" s="3" t="s">
         <v>75</v>
       </c>
       <c r="N261" s="2" t="s">
@@ -18947,7 +18947,7 @@
       </c>
       <c r="K269" s="2"/>
       <c r="L269" s="4"/>
-      <c r="M269" s="2" t="s">
+      <c r="M269" s="3" t="s">
         <v>76</v>
       </c>
       <c r="N269" s="2" t="s">
@@ -19093,7 +19093,7 @@
       </c>
       <c r="K272" s="2"/>
       <c r="L272" s="4"/>
-      <c r="M272" s="2" t="s">
+      <c r="M272" s="3" t="s">
         <v>77</v>
       </c>
       <c r="N272" s="2" t="s">
@@ -19357,7 +19357,7 @@
         <v>876</v>
       </c>
       <c r="L277" s="4"/>
-      <c r="M277" s="2" t="s">
+      <c r="M277" s="3" t="s">
         <v>78</v>
       </c>
       <c r="N277" s="2" t="s">
@@ -19501,7 +19501,7 @@
       </c>
       <c r="K280" s="2"/>
       <c r="L280" s="4"/>
-      <c r="M280" s="2" t="s">
+      <c r="M280" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N280" s="2" t="s">
@@ -19663,7 +19663,7 @@
       </c>
       <c r="K283" s="2"/>
       <c r="L283" s="4"/>
-      <c r="M283" s="2" t="s">
+      <c r="M283" s="3" t="s">
         <v>78</v>
       </c>
       <c r="N283" s="2" t="s">
@@ -19867,7 +19867,7 @@
       </c>
       <c r="K287" s="2"/>
       <c r="L287" s="4"/>
-      <c r="M287" s="2" t="s">
+      <c r="M287" s="3" t="s">
         <v>79</v>
       </c>
       <c r="N287" s="2" t="s">
@@ -20059,7 +20059,7 @@
       </c>
       <c r="K291" s="2"/>
       <c r="L291" s="4"/>
-      <c r="M291" s="2" t="s">
+      <c r="M291" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N291" s="2" t="s">
@@ -20203,7 +20203,7 @@
         <v>882</v>
       </c>
       <c r="L294" s="4"/>
-      <c r="M294" s="2" t="s">
+      <c r="M294" s="3" t="s">
         <v>80</v>
       </c>
       <c r="N294" s="2" t="s">
@@ -20347,7 +20347,7 @@
       </c>
       <c r="K297" s="2"/>
       <c r="L297" s="4"/>
-      <c r="M297" s="2" t="s">
+      <c r="M297" s="3" t="s">
         <v>81</v>
       </c>
       <c r="N297" s="2" t="s">
@@ -20557,7 +20557,7 @@
         <v>883</v>
       </c>
       <c r="L301" s="4"/>
-      <c r="M301" s="2" t="s">
+      <c r="M301" s="3" t="s">
         <v>82</v>
       </c>
       <c r="N301" s="2" t="s">
@@ -20697,7 +20697,7 @@
       </c>
       <c r="K304" s="2"/>
       <c r="L304" s="4"/>
-      <c r="M304" s="2" t="s">
+      <c r="M304" s="3" t="s">
         <v>83</v>
       </c>
       <c r="N304" s="2" t="s">
@@ -20857,7 +20857,7 @@
         <v>884</v>
       </c>
       <c r="L307" s="4"/>
-      <c r="M307" s="2" t="s">
+      <c r="M307" s="3" t="s">
         <v>84</v>
       </c>
       <c r="N307" s="2" t="s">
@@ -20997,7 +20997,7 @@
       </c>
       <c r="K310" s="2"/>
       <c r="L310" s="4"/>
-      <c r="M310" s="2" t="s">
+      <c r="M310" s="3" t="s">
         <v>85</v>
       </c>
       <c r="N310" s="2" t="s">
@@ -21159,7 +21159,7 @@
       </c>
       <c r="K313" s="2"/>
       <c r="L313" s="4"/>
-      <c r="M313" s="2" t="s">
+      <c r="M313" s="3" t="s">
         <v>86</v>
       </c>
       <c r="N313" s="2" t="s">
@@ -21367,7 +21367,7 @@
       </c>
       <c r="K317" s="2"/>
       <c r="L317" s="4"/>
-      <c r="M317" s="2" t="s">
+      <c r="M317" s="3" t="s">
         <v>76</v>
       </c>
       <c r="N317" s="2" t="s">
@@ -21513,7 +21513,7 @@
       </c>
       <c r="K320" s="2"/>
       <c r="L320" s="4"/>
-      <c r="M320" s="2" t="s">
+      <c r="M320" s="3" t="s">
         <v>77</v>
       </c>
       <c r="N320" s="2" t="s">
@@ -21669,7 +21669,7 @@
         <v>886</v>
       </c>
       <c r="L323" s="4"/>
-      <c r="M323" s="2" t="s">
+      <c r="M323" s="3" t="s">
         <v>87</v>
       </c>
       <c r="N323" s="2" t="s">
@@ -21813,7 +21813,7 @@
       </c>
       <c r="K326" s="2"/>
       <c r="L326" s="4"/>
-      <c r="M326" s="2" t="s">
+      <c r="M326" s="3" t="s">
         <v>88</v>
       </c>
       <c r="N326" s="2" t="s">
@@ -21977,7 +21977,7 @@
         <v>887</v>
       </c>
       <c r="L329" s="4"/>
-      <c r="M329" s="2" t="s">
+      <c r="M329" s="3" t="s">
         <v>89</v>
       </c>
       <c r="N329" s="2" t="s">
@@ -22143,7 +22143,7 @@
         <v>888</v>
       </c>
       <c r="L332" s="4"/>
-      <c r="M332" s="2" t="s">
+      <c r="M332" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N332" s="2" t="s">
@@ -22309,7 +22309,7 @@
         <v>889</v>
       </c>
       <c r="L335" s="4"/>
-      <c r="M335" s="2" t="s">
+      <c r="M335" s="3" t="s">
         <v>90</v>
       </c>
       <c r="N335" s="2" t="s">
@@ -22475,7 +22475,7 @@
         <v>890</v>
       </c>
       <c r="L338" s="4"/>
-      <c r="M338" s="2" t="s">
+      <c r="M338" s="3" t="s">
         <v>91</v>
       </c>
       <c r="N338" s="2" t="s">
@@ -22637,7 +22637,7 @@
         <v>891</v>
       </c>
       <c r="L341" s="4"/>
-      <c r="M341" s="2" t="s">
+      <c r="M341" s="3" t="s">
         <v>92</v>
       </c>
       <c r="N341" s="2" t="s">
@@ -22895,7 +22895,7 @@
         <v>892</v>
       </c>
       <c r="L346" s="4"/>
-      <c r="M346" s="2" t="s">
+      <c r="M346" s="3" t="s">
         <v>93</v>
       </c>
       <c r="N346" s="2" t="s">
@@ -23153,7 +23153,7 @@
         <v>891</v>
       </c>
       <c r="L351" s="4"/>
-      <c r="M351" s="2" t="s">
+      <c r="M351" s="3" t="s">
         <v>94</v>
       </c>
       <c r="N351" s="2" t="s">
@@ -23409,7 +23409,7 @@
       </c>
       <c r="K356" s="2"/>
       <c r="L356" s="4"/>
-      <c r="M356" s="2" t="s">
+      <c r="M356" s="3" t="s">
         <v>95</v>
       </c>
       <c r="N356" s="2" t="s">
@@ -23549,7 +23549,7 @@
         <v>893</v>
       </c>
       <c r="L359" s="4"/>
-      <c r="M359" s="2" t="s">
+      <c r="M359" s="3" t="s">
         <v>96</v>
       </c>
       <c r="N359" s="2" t="s">
@@ -23873,7 +23873,7 @@
         <v>891</v>
       </c>
       <c r="L365" s="4"/>
-      <c r="M365" s="2" t="s">
+      <c r="M365" s="3" t="s">
         <v>97</v>
       </c>
       <c r="N365" s="2" t="s">
@@ -24139,7 +24139,7 @@
         <v>894</v>
       </c>
       <c r="L370" s="4"/>
-      <c r="M370" s="2" t="s">
+      <c r="M370" s="3" t="s">
         <v>98</v>
       </c>
       <c r="N370" s="2" t="s">
@@ -24283,7 +24283,7 @@
       </c>
       <c r="K373" s="2"/>
       <c r="L373" s="4"/>
-      <c r="M373" s="2" t="s">
+      <c r="M373" s="3" t="s">
         <v>99</v>
       </c>
       <c r="N373" s="2" t="s">
@@ -24441,7 +24441,7 @@
       </c>
       <c r="K376" s="2"/>
       <c r="L376" s="4"/>
-      <c r="M376" s="2" t="s">
+      <c r="M376" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N376" s="2" t="s">
@@ -24579,7 +24579,7 @@
       </c>
       <c r="K379" s="2"/>
       <c r="L379" s="4"/>
-      <c r="M379" s="2" t="s">
+      <c r="M379" s="3" t="s">
         <v>100</v>
       </c>
       <c r="N379" s="2" t="s">
@@ -24791,7 +24791,7 @@
       </c>
       <c r="K383" s="2"/>
       <c r="L383" s="4"/>
-      <c r="M383" s="2" t="s">
+      <c r="M383" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N383" s="2" t="s">
@@ -24937,7 +24937,7 @@
       </c>
       <c r="K386" s="2"/>
       <c r="L386" s="4"/>
-      <c r="M386" s="2" t="s">
+      <c r="M386" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N386" s="2" t="s">
@@ -25259,7 +25259,7 @@
         <v>895</v>
       </c>
       <c r="L392" s="4"/>
-      <c r="M392" s="2" t="s">
+      <c r="M392" s="3" t="s">
         <v>101</v>
       </c>
       <c r="N392" s="2" t="s">
@@ -25403,7 +25403,7 @@
       </c>
       <c r="K395" s="2"/>
       <c r="L395" s="4"/>
-      <c r="M395" s="2" t="s">
+      <c r="M395" s="3" t="s">
         <v>99</v>
       </c>
       <c r="N395" s="2" t="s">
@@ -25565,7 +25565,7 @@
       </c>
       <c r="K398" s="2"/>
       <c r="L398" s="4"/>
-      <c r="M398" s="2" t="s">
+      <c r="M398" s="3" t="s">
         <v>101</v>
       </c>
       <c r="N398" s="2" t="s">
@@ -25769,7 +25769,7 @@
       </c>
       <c r="K402" s="2"/>
       <c r="L402" s="4"/>
-      <c r="M402" s="2" t="s">
+      <c r="M402" s="3" t="s">
         <v>79</v>
       </c>
       <c r="N402" s="2" t="s">
@@ -25961,7 +25961,7 @@
       </c>
       <c r="K406" s="2"/>
       <c r="L406" s="4"/>
-      <c r="M406" s="2" t="s">
+      <c r="M406" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N406" s="2" t="s">
@@ -26315,7 +26315,7 @@
       </c>
       <c r="K413" s="2"/>
       <c r="L413" s="4"/>
-      <c r="M413" s="2" t="s">
+      <c r="M413" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N413" s="2" t="s">
@@ -26459,7 +26459,7 @@
         <v>896</v>
       </c>
       <c r="L416" s="4"/>
-      <c r="M416" s="2" t="s">
+      <c r="M416" s="3" t="s">
         <v>102</v>
       </c>
       <c r="N416" s="2" t="s">
@@ -26599,7 +26599,7 @@
       </c>
       <c r="K419" s="2"/>
       <c r="L419" s="4"/>
-      <c r="M419" s="2" t="s">
+      <c r="M419" s="3" t="s">
         <v>103</v>
       </c>
       <c r="N419" s="2" t="s">
@@ -26763,7 +26763,7 @@
         <v>897</v>
       </c>
       <c r="L422" s="4"/>
-      <c r="M422" s="2" t="s">
+      <c r="M422" s="3" t="s">
         <v>104</v>
       </c>
       <c r="N422" s="2" t="s">
@@ -26919,7 +26919,7 @@
       </c>
       <c r="K425" s="2"/>
       <c r="L425" s="4"/>
-      <c r="M425" s="2" t="s">
+      <c r="M425" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N425" s="2" t="s">
@@ -27065,7 +27065,7 @@
       </c>
       <c r="K428" s="2"/>
       <c r="L428" s="4"/>
-      <c r="M428" s="2" t="s">
+      <c r="M428" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N428" s="2" t="s">
@@ -27501,7 +27501,7 @@
       </c>
       <c r="K436" s="2"/>
       <c r="L436" s="4"/>
-      <c r="M436" s="2" t="s">
+      <c r="M436" s="3" t="s">
         <v>105</v>
       </c>
       <c r="N436" s="2" t="s">
@@ -27655,7 +27655,7 @@
       </c>
       <c r="K439" s="2"/>
       <c r="L439" s="4"/>
-      <c r="M439" s="2" t="s">
+      <c r="M439" s="3" t="s">
         <v>106</v>
       </c>
       <c r="N439" s="2" t="s">
@@ -28065,7 +28065,7 @@
         <v>898</v>
       </c>
       <c r="L447" s="4"/>
-      <c r="M447" s="2" t="s">
+      <c r="M447" s="3" t="s">
         <v>107</v>
       </c>
       <c r="N447" s="2" t="s">
@@ -28205,7 +28205,7 @@
       </c>
       <c r="K450" s="2"/>
       <c r="L450" s="4"/>
-      <c r="M450" s="2" t="s">
+      <c r="M450" s="3" t="s">
         <v>108</v>
       </c>
       <c r="N450" s="2" t="s">
@@ -28369,7 +28369,7 @@
         <v>899</v>
       </c>
       <c r="L453" s="4"/>
-      <c r="M453" s="2" t="s">
+      <c r="M453" s="3" t="s">
         <v>109</v>
       </c>
       <c r="N453" s="2" t="s">
@@ -28525,7 +28525,7 @@
       </c>
       <c r="K456" s="2"/>
       <c r="L456" s="4"/>
-      <c r="M456" s="2" t="s">
+      <c r="M456" s="3" t="s">
         <v>110</v>
       </c>
       <c r="N456" s="2" t="s">
@@ -29377,7 +29377,7 @@
       </c>
       <c r="K472" s="2"/>
       <c r="L472" s="4"/>
-      <c r="M472" s="2" t="s">
+      <c r="M472" s="3" t="s">
         <v>111</v>
       </c>
       <c r="N472" s="2" t="s">
@@ -29537,7 +29537,7 @@
         <v>901</v>
       </c>
       <c r="L475" s="4"/>
-      <c r="M475" s="2" t="s">
+      <c r="M475" s="3" t="s">
         <v>112</v>
       </c>
       <c r="N475" s="2" t="s">
@@ -29751,7 +29751,7 @@
       </c>
       <c r="K479" s="2"/>
       <c r="L479" s="4"/>
-      <c r="M479" s="2" t="s">
+      <c r="M479" s="3" t="s">
         <v>113</v>
       </c>
       <c r="N479" s="2" t="s">
@@ -29909,7 +29909,7 @@
       </c>
       <c r="K482" s="2"/>
       <c r="L482" s="4"/>
-      <c r="M482" s="2" t="s">
+      <c r="M482" s="3" t="s">
         <v>114</v>
       </c>
       <c r="N482" s="2" t="s">
@@ -30123,7 +30123,7 @@
         <v>902</v>
       </c>
       <c r="L486" s="4"/>
-      <c r="M486" s="2" t="s">
+      <c r="M486" s="3" t="s">
         <v>115</v>
       </c>
       <c r="N486" s="2" t="s">
@@ -30427,7 +30427,7 @@
         <v>903</v>
       </c>
       <c r="L492" s="4"/>
-      <c r="M492" s="2" t="s">
+      <c r="M492" s="3" t="s">
         <v>116</v>
       </c>
       <c r="N492" s="2" t="s">
@@ -30573,7 +30573,7 @@
         <v>904</v>
       </c>
       <c r="L495" s="4"/>
-      <c r="M495" s="2" t="s">
+      <c r="M495" s="3" t="s">
         <v>117</v>
       </c>
       <c r="N495" s="2" t="s">
@@ -30791,7 +30791,7 @@
       </c>
       <c r="K499" s="2"/>
       <c r="L499" s="4"/>
-      <c r="M499" s="2" t="s">
+      <c r="M499" s="3" t="s">
         <v>108</v>
       </c>
       <c r="N499" s="2" t="s">
@@ -30955,7 +30955,7 @@
         <v>906</v>
       </c>
       <c r="L502" s="4"/>
-      <c r="M502" s="2" t="s">
+      <c r="M502" s="3" t="s">
         <v>118</v>
       </c>
       <c r="N502" s="2" t="s">
@@ -31115,7 +31115,7 @@
       </c>
       <c r="K505" s="2"/>
       <c r="L505" s="4"/>
-      <c r="M505" s="2" t="s">
+      <c r="M505" s="3" t="s">
         <v>119</v>
       </c>
       <c r="N505" s="2" t="s">
@@ -31325,7 +31325,7 @@
         <v>908</v>
       </c>
       <c r="L509" s="4"/>
-      <c r="M509" s="2" t="s">
+      <c r="M509" s="3" t="s">
         <v>75</v>
       </c>
       <c r="N509" s="2" t="s">
@@ -31737,7 +31737,7 @@
         <v>909</v>
       </c>
       <c r="L517" s="4"/>
-      <c r="M517" s="2" t="s">
+      <c r="M517" s="3" t="s">
         <v>120</v>
       </c>
       <c r="N517" s="2" t="s">
@@ -32087,7 +32087,7 @@
         <v>910</v>
       </c>
       <c r="L524" s="4"/>
-      <c r="M524" s="2" t="s">
+      <c r="M524" s="3" t="s">
         <v>121</v>
       </c>
       <c r="N524" s="2" t="s">
@@ -32287,7 +32287,7 @@
         <v>911</v>
       </c>
       <c r="L528" s="4"/>
-      <c r="M528" s="2" t="s">
+      <c r="M528" s="3" t="s">
         <v>122</v>
       </c>
       <c r="N528" s="2" t="s">
@@ -32427,7 +32427,7 @@
       </c>
       <c r="K531" s="2"/>
       <c r="L531" s="4"/>
-      <c r="M531" s="2" t="s">
+      <c r="M531" s="3" t="s">
         <v>117</v>
       </c>
       <c r="N531" s="2" t="s">
@@ -32581,7 +32581,7 @@
       </c>
       <c r="K534" s="2"/>
       <c r="L534" s="4"/>
-      <c r="M534" s="2" t="s">
+      <c r="M534" s="3" t="s">
         <v>123</v>
       </c>
       <c r="N534" s="2" t="s">
@@ -32729,7 +32729,7 @@
         <v>912</v>
       </c>
       <c r="L537" s="4"/>
-      <c r="M537" s="2" t="s">
+      <c r="M537" s="3" t="s">
         <v>111</v>
       </c>
       <c r="N537" s="2" t="s">
@@ -32889,7 +32889,7 @@
       </c>
       <c r="K540" s="2"/>
       <c r="L540" s="4"/>
-      <c r="M540" s="2" t="s">
+      <c r="M540" s="3" t="s">
         <v>124</v>
       </c>
       <c r="N540" s="2" t="s">
@@ -33211,7 +33211,7 @@
         <v>914</v>
       </c>
       <c r="L546" s="4"/>
-      <c r="M546" s="2" t="s">
+      <c r="M546" s="3" t="s">
         <v>125</v>
       </c>
       <c r="N546" s="2" t="s">
@@ -33355,7 +33355,7 @@
       </c>
       <c r="K549" s="2"/>
       <c r="L549" s="4"/>
-      <c r="M549" s="2" t="s">
+      <c r="M549" s="3" t="s">
         <v>117</v>
       </c>
       <c r="N549" s="2" t="s">
@@ -33509,7 +33509,7 @@
       </c>
       <c r="K552" s="2"/>
       <c r="L552" s="4"/>
-      <c r="M552" s="2" t="s">
+      <c r="M552" s="3" t="s">
         <v>126</v>
       </c>
       <c r="N552" s="2" t="s">
@@ -33655,7 +33655,7 @@
       </c>
       <c r="K555" s="2"/>
       <c r="L555" s="4"/>
-      <c r="M555" s="2" t="s">
+      <c r="M555" s="3" t="s">
         <v>111</v>
       </c>
       <c r="N555" s="2" t="s">
@@ -33813,7 +33813,7 @@
       </c>
       <c r="K558" s="2"/>
       <c r="L558" s="4"/>
-      <c r="M558" s="2" t="s">
+      <c r="M558" s="3" t="s">
         <v>127</v>
       </c>
       <c r="N558" s="2" t="s">
@@ -34185,7 +34185,7 @@
         <v>911</v>
       </c>
       <c r="L565" s="4"/>
-      <c r="M565" s="2" t="s">
+      <c r="M565" s="3" t="s">
         <v>128</v>
       </c>
       <c r="N565" s="2" t="s">
@@ -34329,7 +34329,7 @@
       </c>
       <c r="K568" s="2"/>
       <c r="L568" s="4"/>
-      <c r="M568" s="2" t="s">
+      <c r="M568" s="3" t="s">
         <v>117</v>
       </c>
       <c r="N568" s="2" t="s">
@@ -34483,7 +34483,7 @@
       </c>
       <c r="K571" s="2"/>
       <c r="L571" s="4"/>
-      <c r="M571" s="2" t="s">
+      <c r="M571" s="3" t="s">
         <v>129</v>
       </c>
       <c r="N571" s="2" t="s">
@@ -34629,7 +34629,7 @@
       </c>
       <c r="K574" s="2"/>
       <c r="L574" s="4"/>
-      <c r="M574" s="2" t="s">
+      <c r="M574" s="3" t="s">
         <v>111</v>
       </c>
       <c r="N574" s="2" t="s">
@@ -34787,7 +34787,7 @@
       </c>
       <c r="K577" s="2"/>
       <c r="L577" s="4"/>
-      <c r="M577" s="2" t="s">
+      <c r="M577" s="3" t="s">
         <v>130</v>
       </c>
       <c r="N577" s="2" t="s">
@@ -34943,7 +34943,7 @@
         <v>911</v>
       </c>
       <c r="L580" s="4"/>
-      <c r="M580" s="2" t="s">
+      <c r="M580" s="3" t="s">
         <v>131</v>
       </c>
       <c r="N580" s="2" t="s">
@@ -35225,7 +35225,7 @@
       </c>
       <c r="K586" s="2"/>
       <c r="L586" s="4"/>
-      <c r="M586" s="2" t="s">
+      <c r="M586" s="3" t="s">
         <v>111</v>
       </c>
       <c r="N586" s="2" t="s">
@@ -35385,7 +35385,7 @@
         <v>916</v>
       </c>
       <c r="L589" s="4"/>
-      <c r="M589" s="2" t="s">
+      <c r="M589" s="3" t="s">
         <v>132</v>
       </c>
       <c r="N589" s="2" t="s">
@@ -35525,7 +35525,7 @@
       </c>
       <c r="K592" s="2"/>
       <c r="L592" s="4"/>
-      <c r="M592" s="2" t="s">
+      <c r="M592" s="3" t="s">
         <v>109</v>
       </c>
       <c r="N592" s="2" t="s">
@@ -35683,7 +35683,7 @@
       </c>
       <c r="K595" s="2"/>
       <c r="L595" s="4"/>
-      <c r="M595" s="2" t="s">
+      <c r="M595" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N595" s="2" t="s">
@@ -35841,7 +35841,7 @@
       </c>
       <c r="K598" s="2"/>
       <c r="L598" s="4"/>
-      <c r="M598" s="2" t="s">
+      <c r="M598" s="3" t="s">
         <v>133</v>
       </c>
       <c r="N598" s="2" t="s">
@@ -35987,7 +35987,7 @@
       </c>
       <c r="K601" s="2"/>
       <c r="L601" s="4"/>
-      <c r="M601" s="2" t="s">
+      <c r="M601" s="3" t="s">
         <v>111</v>
       </c>
       <c r="N601" s="2" t="s">
@@ -36147,7 +36147,7 @@
         <v>917</v>
       </c>
       <c r="L604" s="4"/>
-      <c r="M604" s="2" t="s">
+      <c r="M604" s="3" t="s">
         <v>134</v>
       </c>
       <c r="N604" s="2" t="s">
@@ -36287,7 +36287,7 @@
       </c>
       <c r="K607" s="2"/>
       <c r="L607" s="4"/>
-      <c r="M607" s="2" t="s">
+      <c r="M607" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N607" s="2" t="s">
@@ -36445,7 +36445,7 @@
       </c>
       <c r="K610" s="2"/>
       <c r="L610" s="4"/>
-      <c r="M610" s="2" t="s">
+      <c r="M610" s="3" t="s">
         <v>135</v>
       </c>
       <c r="N610" s="2" t="s">
@@ -36739,7 +36739,7 @@
         <v>918</v>
       </c>
       <c r="L616" s="4"/>
-      <c r="M616" s="2" t="s">
+      <c r="M616" s="3" t="s">
         <v>136</v>
       </c>
       <c r="N616" s="2" t="s">
@@ -36879,7 +36879,7 @@
       </c>
       <c r="K619" s="2"/>
       <c r="L619" s="4"/>
-      <c r="M619" s="2" t="s">
+      <c r="M619" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N619" s="2" t="s">
@@ -37037,7 +37037,7 @@
       </c>
       <c r="K622" s="2"/>
       <c r="L622" s="4"/>
-      <c r="M622" s="2" t="s">
+      <c r="M622" s="3" t="s">
         <v>137</v>
       </c>
       <c r="N622" s="2" t="s">
@@ -37279,7 +37279,7 @@
       </c>
       <c r="K627" s="2"/>
       <c r="L627" s="4"/>
-      <c r="M627" s="2" t="s">
+      <c r="M627" s="3" t="s">
         <v>135</v>
       </c>
       <c r="N627" s="2" t="s">
@@ -37629,7 +37629,7 @@
       </c>
       <c r="K634" s="2"/>
       <c r="L634" s="4"/>
-      <c r="M634" s="2" t="s">
+      <c r="M634" s="3" t="s">
         <v>138</v>
       </c>
       <c r="N634" s="2" t="s">
@@ -37993,7 +37993,7 @@
         <v>920</v>
       </c>
       <c r="L641" s="4"/>
-      <c r="M641" s="2" t="s">
+      <c r="M641" s="3" t="s">
         <v>139</v>
       </c>
       <c r="N641" s="2" t="s">
@@ -38133,7 +38133,7 @@
       </c>
       <c r="K644" s="2"/>
       <c r="L644" s="4"/>
-      <c r="M644" s="2" t="s">
+      <c r="M644" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N644" s="2" t="s">
@@ -38291,7 +38291,7 @@
       </c>
       <c r="K647" s="2"/>
       <c r="L647" s="4"/>
-      <c r="M647" s="2" t="s">
+      <c r="M647" s="3" t="s">
         <v>140</v>
       </c>
       <c r="N647" s="2" t="s">
@@ -38531,7 +38531,7 @@
         <v>921</v>
       </c>
       <c r="L652" s="4"/>
-      <c r="M652" s="2" t="s">
+      <c r="M652" s="3" t="s">
         <v>141</v>
       </c>
       <c r="N652" s="2" t="s">
@@ -38943,7 +38943,7 @@
       </c>
       <c r="K660" s="2"/>
       <c r="L660" s="4"/>
-      <c r="M660" s="2" t="s">
+      <c r="M660" s="3" t="s">
         <v>142</v>
       </c>
       <c r="N660" s="2"/>
